--- a/src/test/resources/Testdata.xlsx
+++ b/src/test/resources/Testdata.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srija\eclipse-workspace\MiniProjectNew02\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F8D39C-33FF-41FC-9E66-9F1453959BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE83CF7-95DF-4BF5-AC82-687C9FB1DE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{F675C2E3-9ED9-4DD3-9D60-F3BB5841F8C9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F675C2E3-9ED9-4DD3-9D60-F3BB5841F8C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Signup" sheetId="1" r:id="rId1"/>
     <sheet name="LoginAndAdd" sheetId="2" r:id="rId2"/>
     <sheet name="EditInfo" sheetId="3" r:id="rId3"/>
+    <sheet name="Logout" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Password</t>
   </si>
@@ -41,18 +42,12 @@
     <t>Lastname</t>
   </si>
   <si>
-    <t>user5</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
     <t>guvi123</t>
   </si>
   <si>
-    <t>testguviuser5@gmail.com</t>
-  </si>
-  <si>
     <t>maniishguvi@gmail.com</t>
   </si>
   <si>
@@ -107,9 +102,6 @@
     <t>United States</t>
   </si>
   <si>
-    <t>25-07-1996</t>
-  </si>
-  <si>
     <t>987612345</t>
   </si>
   <si>
@@ -129,6 +121,21 @@
   </si>
   <si>
     <t>0123456789</t>
+  </si>
+  <si>
+    <t>maniishguvi@com</t>
+  </si>
+  <si>
+    <t>Invalidemail</t>
+  </si>
+  <si>
+    <t>1996-07-12</t>
+  </si>
+  <si>
+    <t>user09</t>
+  </si>
+  <si>
+    <t>testguviuser09@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -494,7 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EA8D82-C005-42FD-8561-7DB4B9A5D17B}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
@@ -513,7 +520,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -524,13 +531,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -543,115 +550,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A0BF7C-233D-4F13-8CE7-E36D2EA7EFDA}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E3" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{3D921B91-F17F-4311-84A8-7F1A6A484DFB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -660,7 +674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB7949B-3065-4504-9748-8A220DEBF29E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
@@ -675,7 +689,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -684,27 +698,62 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B814E617-9015-46AD-BF9E-34C0B419CCE7}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
